--- a/data/pca/factorExposure/factorExposure_2010-03-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-23.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.0141106694160725</v>
+        <v>-0.01707275350755847</v>
       </c>
       <c r="C2">
-        <v>0.0094666754571259</v>
+        <v>-0.001014145920258728</v>
       </c>
       <c r="D2">
-        <v>0.01340504099304251</v>
+        <v>0.008139352141226779</v>
       </c>
       <c r="E2">
-        <v>-0.009274248220744777</v>
+        <v>-0.0001676550378520191</v>
       </c>
       <c r="F2">
-        <v>0.02016371012320268</v>
+        <v>-0.009970146206180955</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.123123126509712</v>
+        <v>-0.09342579942086025</v>
       </c>
       <c r="C4">
-        <v>0.0680938440803688</v>
+        <v>-0.01575436471058094</v>
       </c>
       <c r="D4">
-        <v>0.004063609413799163</v>
+        <v>0.08487756840663095</v>
       </c>
       <c r="E4">
-        <v>0.00562813926599381</v>
+        <v>0.0308617401426759</v>
       </c>
       <c r="F4">
-        <v>-0.01175520275728192</v>
+        <v>0.03067099719337069</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1215241066629375</v>
+        <v>-0.1550369103162175</v>
       </c>
       <c r="C6">
-        <v>-0.007420884809040327</v>
+        <v>-0.02458485454031136</v>
       </c>
       <c r="D6">
-        <v>0.01585688609211191</v>
+        <v>-0.02270531799942642</v>
       </c>
       <c r="E6">
-        <v>-0.02742971154861705</v>
+        <v>0.009260174668265028</v>
       </c>
       <c r="F6">
-        <v>-0.05667794629056162</v>
+        <v>0.0491769005891694</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07537556693648391</v>
+        <v>-0.05917432661625448</v>
       </c>
       <c r="C7">
-        <v>0.06213904446425254</v>
+        <v>0.0009488436417777714</v>
       </c>
       <c r="D7">
-        <v>0.02231963073743478</v>
+        <v>0.05246336514708392</v>
       </c>
       <c r="E7">
-        <v>-0.02754913564575596</v>
+        <v>0.01528100805726349</v>
       </c>
       <c r="F7">
-        <v>0.03382782003425394</v>
+        <v>0.04863354194852672</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05624531407549836</v>
+        <v>-0.0578028002697113</v>
       </c>
       <c r="C8">
-        <v>0.03645076769646242</v>
+        <v>0.01336742426639814</v>
       </c>
       <c r="D8">
-        <v>0.01806481459978681</v>
+        <v>0.03286484127528749</v>
       </c>
       <c r="E8">
-        <v>0.007696706179738918</v>
+        <v>0.01635006890307223</v>
       </c>
       <c r="F8">
-        <v>-0.02385189408472937</v>
+        <v>-0.03027515803146451</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08725146553392721</v>
+        <v>-0.07119695166095089</v>
       </c>
       <c r="C9">
-        <v>0.05307122361000834</v>
+        <v>-0.01173184783064767</v>
       </c>
       <c r="D9">
-        <v>0.009280798832280411</v>
+        <v>0.08424725352518594</v>
       </c>
       <c r="E9">
-        <v>0.01138395722524923</v>
+        <v>0.02543509942945229</v>
       </c>
       <c r="F9">
-        <v>0.01048746645769278</v>
+        <v>0.05212578812930901</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.09777408830340346</v>
+        <v>-0.09521576057007669</v>
       </c>
       <c r="C10">
-        <v>-0.1788145478793309</v>
+        <v>-0.017931349939586</v>
       </c>
       <c r="D10">
-        <v>0.00674470391993286</v>
+        <v>-0.1705047165425465</v>
       </c>
       <c r="E10">
-        <v>-0.006400265108248317</v>
+        <v>-0.03984948306917124</v>
       </c>
       <c r="F10">
-        <v>0.04837823603282165</v>
+        <v>-0.05436349823362795</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08256393958609232</v>
+        <v>-0.08729612502918165</v>
       </c>
       <c r="C11">
-        <v>0.05076217866422404</v>
+        <v>-0.01137158326216692</v>
       </c>
       <c r="D11">
-        <v>0.01953768605793745</v>
+        <v>0.1147422020753821</v>
       </c>
       <c r="E11">
-        <v>0.01671652464083959</v>
+        <v>0.0494473405731936</v>
       </c>
       <c r="F11">
-        <v>-0.008041446018551644</v>
+        <v>0.01872477005424692</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.08607471046511146</v>
+        <v>-0.09188043502294328</v>
       </c>
       <c r="C12">
-        <v>0.07631229147004764</v>
+        <v>-0.008931748278089693</v>
       </c>
       <c r="D12">
-        <v>0.03002999247447227</v>
+        <v>0.123656409286546</v>
       </c>
       <c r="E12">
-        <v>0.05924099826677467</v>
+        <v>0.04870745702188569</v>
       </c>
       <c r="F12">
-        <v>0.02119966589035498</v>
+        <v>0.01828567345598696</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03289027210151085</v>
+        <v>-0.04292475576591159</v>
       </c>
       <c r="C13">
-        <v>0.02660198972776965</v>
+        <v>-0.003986157752808454</v>
       </c>
       <c r="D13">
-        <v>0.002528708689819866</v>
+        <v>0.04661573821932675</v>
       </c>
       <c r="E13">
-        <v>-0.02203238291879516</v>
+        <v>-0.01204918446200078</v>
       </c>
       <c r="F13">
-        <v>0.01140997495555752</v>
+        <v>0.01314787029438994</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0302362948851041</v>
+        <v>-0.02240093074821103</v>
       </c>
       <c r="C14">
-        <v>0.005344864420574129</v>
+        <v>-0.01427003252112</v>
       </c>
       <c r="D14">
-        <v>-0.009090243178847974</v>
+        <v>0.03126780072787175</v>
       </c>
       <c r="E14">
-        <v>0.0204707277393577</v>
+        <v>0.01896332608239154</v>
       </c>
       <c r="F14">
-        <v>-0.01185506720247077</v>
+        <v>0.01690939978798583</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01684978838213965</v>
+        <v>-0.03141681534640761</v>
       </c>
       <c r="C15">
-        <v>0.006316709102869658</v>
+        <v>-0.00529111876330966</v>
       </c>
       <c r="D15">
-        <v>0.009466979422102621</v>
+        <v>0.04514415459683464</v>
       </c>
       <c r="E15">
-        <v>-0.04695682764078467</v>
+        <v>0.009087844292072208</v>
       </c>
       <c r="F15">
-        <v>0.01946815864314515</v>
+        <v>0.02931504570984854</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.0921377357064307</v>
+        <v>-0.07301941596702739</v>
       </c>
       <c r="C16">
-        <v>0.06307371993663732</v>
+        <v>-0.002748035323244512</v>
       </c>
       <c r="D16">
-        <v>0.02201783713850609</v>
+        <v>0.1186142956923627</v>
       </c>
       <c r="E16">
-        <v>0.04119982140731574</v>
+        <v>0.0639775169022055</v>
       </c>
       <c r="F16">
-        <v>-0.0008988352711250498</v>
+        <v>0.02750320878989148</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02402431311558222</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003852566309197345</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.01874257039829183</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.006313599480763745</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.01776589415387245</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04938741841294971</v>
+        <v>-0.06040344818502266</v>
       </c>
       <c r="C20">
-        <v>0.03300188790329804</v>
+        <v>-0.0004236288314303153</v>
       </c>
       <c r="D20">
-        <v>-0.02351575035869125</v>
+        <v>0.07515309128526615</v>
       </c>
       <c r="E20">
-        <v>-0.03182618401346534</v>
+        <v>0.05625315858453084</v>
       </c>
       <c r="F20">
-        <v>0.0132642994999226</v>
+        <v>0.02650761873284382</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03196444127584921</v>
+        <v>-0.0388448784636834</v>
       </c>
       <c r="C21">
-        <v>-0.002148355128290467</v>
+        <v>-0.00683349163304926</v>
       </c>
       <c r="D21">
-        <v>-0.02527790234583896</v>
+        <v>0.03631471974989869</v>
       </c>
       <c r="E21">
-        <v>0.01413239061512637</v>
+        <v>-0.008097966870202453</v>
       </c>
       <c r="F21">
-        <v>-0.0253660610010398</v>
+        <v>-0.02168134866965792</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.0304049675721079</v>
+        <v>-0.04337927011980312</v>
       </c>
       <c r="C22">
-        <v>-0.0328588558393672</v>
+        <v>-0.001052018969633565</v>
       </c>
       <c r="D22">
-        <v>0.05127087484271119</v>
+        <v>-0.002020819881217102</v>
       </c>
       <c r="E22">
-        <v>-0.6030785686578433</v>
+        <v>0.02758906735010597</v>
       </c>
       <c r="F22">
-        <v>0.1568806647121024</v>
+        <v>-0.003952658985968587</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.03063000848984684</v>
+        <v>-0.04343326616559019</v>
       </c>
       <c r="C23">
-        <v>-0.03242663743047049</v>
+        <v>-0.001074395890351613</v>
       </c>
       <c r="D23">
-        <v>0.0523816229348613</v>
+        <v>-0.00189484259457124</v>
       </c>
       <c r="E23">
-        <v>-0.6064563297435738</v>
+        <v>0.02794414475832355</v>
       </c>
       <c r="F23">
-        <v>0.155636745820629</v>
+        <v>-0.003493586255826455</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09136613001943263</v>
+        <v>-0.07947551839419412</v>
       </c>
       <c r="C24">
-        <v>0.05905689145269204</v>
+        <v>-0.003022553810699961</v>
       </c>
       <c r="D24">
-        <v>0.009471024029145216</v>
+        <v>0.1189545928252566</v>
       </c>
       <c r="E24">
-        <v>0.03053830717684416</v>
+        <v>0.05201309595581114</v>
       </c>
       <c r="F24">
-        <v>0.009137737255655691</v>
+        <v>0.02017518483205201</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09608437007372193</v>
+        <v>-0.08465980161375689</v>
       </c>
       <c r="C25">
-        <v>0.05032142822576628</v>
+        <v>-0.005130244450627777</v>
       </c>
       <c r="D25">
-        <v>0.027201272961657</v>
+        <v>0.1073678265810615</v>
       </c>
       <c r="E25">
-        <v>0.0633774629367363</v>
+        <v>0.03447975809396311</v>
       </c>
       <c r="F25">
-        <v>0.01314208667150496</v>
+        <v>0.02783534998602063</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0355841671058666</v>
+        <v>-0.05447439420768238</v>
       </c>
       <c r="C26">
-        <v>-0.02856589460109891</v>
+        <v>-0.01472292208138595</v>
       </c>
       <c r="D26">
-        <v>-0.01396545517238532</v>
+        <v>0.03818715196591151</v>
       </c>
       <c r="E26">
-        <v>-0.01092236863403607</v>
+        <v>0.02780593813998909</v>
       </c>
       <c r="F26">
-        <v>-0.03324044382062267</v>
+        <v>-0.01259168247190378</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.09923353913037458</v>
+        <v>-0.1435570656667373</v>
       </c>
       <c r="C28">
-        <v>-0.3176278523468349</v>
+        <v>-0.01679727835006836</v>
       </c>
       <c r="D28">
-        <v>0.04611836678583878</v>
+        <v>-0.2655620781770148</v>
       </c>
       <c r="E28">
-        <v>0.04462221982751455</v>
+        <v>-0.06977814056019838</v>
       </c>
       <c r="F28">
-        <v>-0.009075631894137818</v>
+        <v>0.02838253344834241</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02875357845304047</v>
+        <v>-0.02720343033913617</v>
       </c>
       <c r="C29">
-        <v>0.004994390796912543</v>
+        <v>-0.008613089735612043</v>
       </c>
       <c r="D29">
-        <v>-0.0008171427319619263</v>
+        <v>0.03016134983808742</v>
       </c>
       <c r="E29">
-        <v>0.03534533910208667</v>
+        <v>0.01214736820902038</v>
       </c>
       <c r="F29">
-        <v>0.02764627675831761</v>
+        <v>-0.01460074584497751</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1051715415942172</v>
+        <v>-0.06245684967098664</v>
       </c>
       <c r="C30">
-        <v>0.1171448939768209</v>
+        <v>-0.004322134465613346</v>
       </c>
       <c r="D30">
-        <v>0.0341489497885617</v>
+        <v>0.08704356004576624</v>
       </c>
       <c r="E30">
-        <v>0.04395067610927345</v>
+        <v>0.02490757997461138</v>
       </c>
       <c r="F30">
-        <v>-0.04121857307575992</v>
+        <v>0.1032960714753085</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02955875000220243</v>
+        <v>-0.04830927711860975</v>
       </c>
       <c r="C31">
-        <v>0.0226821681882377</v>
+        <v>-0.01482823722059053</v>
       </c>
       <c r="D31">
-        <v>-0.004720717349247595</v>
+        <v>0.02774288408760966</v>
       </c>
       <c r="E31">
-        <v>-0.00353990998043233</v>
+        <v>0.02720889948713137</v>
       </c>
       <c r="F31">
-        <v>0.0006314698289354689</v>
+        <v>-0.004890446297462294</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06183356807948914</v>
+        <v>-0.04775014170348452</v>
       </c>
       <c r="C32">
-        <v>0.01790343203257359</v>
+        <v>0.0004307528030677744</v>
       </c>
       <c r="D32">
-        <v>-0.01166146085274772</v>
+        <v>0.03074197294774741</v>
       </c>
       <c r="E32">
-        <v>0.07112277077173772</v>
+        <v>0.03073016218755481</v>
       </c>
       <c r="F32">
-        <v>-0.07221460232112613</v>
+        <v>0.001719483806589223</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09712213761987139</v>
+        <v>-0.08957737961530392</v>
       </c>
       <c r="C33">
-        <v>0.06159654607765155</v>
+        <v>-0.008497494228490787</v>
       </c>
       <c r="D33">
-        <v>0.06861752550524984</v>
+        <v>0.09648938595745175</v>
       </c>
       <c r="E33">
-        <v>0.01642422185929993</v>
+        <v>0.0480048461188271</v>
       </c>
       <c r="F33">
-        <v>0.01176761568482221</v>
+        <v>0.03919967259206788</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07731940286348821</v>
+        <v>-0.06729565967314853</v>
       </c>
       <c r="C34">
-        <v>0.05282235506598259</v>
+        <v>-0.01187855722767459</v>
       </c>
       <c r="D34">
-        <v>0.01573519472087741</v>
+        <v>0.09844938474611808</v>
       </c>
       <c r="E34">
-        <v>0.034197596263365</v>
+        <v>0.03581815684802795</v>
       </c>
       <c r="F34">
-        <v>0.003512305344658959</v>
+        <v>0.03770717167787547</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01167294995025432</v>
+        <v>-0.02446065841878425</v>
       </c>
       <c r="C35">
-        <v>0.01220762330058293</v>
+        <v>-0.002349356236115371</v>
       </c>
       <c r="D35">
-        <v>0.002270005516328539</v>
+        <v>0.01156143681169368</v>
       </c>
       <c r="E35">
-        <v>0.004761519012473919</v>
+        <v>0.01097706618558311</v>
       </c>
       <c r="F35">
-        <v>0.01125009045419953</v>
+        <v>0.008668553869011818</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02882292613632072</v>
+        <v>-0.02453062889385218</v>
       </c>
       <c r="C36">
-        <v>0.006514321720585527</v>
+        <v>-0.007337149733223068</v>
       </c>
       <c r="D36">
-        <v>0.005657329473491713</v>
+        <v>0.03673614379605237</v>
       </c>
       <c r="E36">
-        <v>-0.006627706329812333</v>
+        <v>0.01720779053190833</v>
       </c>
       <c r="F36">
-        <v>-0.01700743502487582</v>
+        <v>0.01421778910215617</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.007145972457236431</v>
+        <v>-0.001490371119460679</v>
       </c>
       <c r="C38">
-        <v>0.006255120964247546</v>
+        <v>-0.0002352875878256596</v>
       </c>
       <c r="D38">
-        <v>0.005078155049311748</v>
+        <v>0.000964601578029428</v>
       </c>
       <c r="E38">
-        <v>-0.02174488593382778</v>
+        <v>0.001155785701087001</v>
       </c>
       <c r="F38">
-        <v>0.0291630240552749</v>
+        <v>-0.001226681833249942</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1325687577812996</v>
+        <v>-0.1076077878620242</v>
       </c>
       <c r="C39">
-        <v>0.1080159753089419</v>
+        <v>-0.01654701900568819</v>
       </c>
       <c r="D39">
-        <v>0.04738410574610882</v>
+        <v>0.1553772355626404</v>
       </c>
       <c r="E39">
-        <v>0.1380912952306442</v>
+        <v>0.06241111484300137</v>
       </c>
       <c r="F39">
-        <v>0.01094423468943155</v>
+        <v>0.02336023986768061</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.006295975026532457</v>
+        <v>-0.03705122615336723</v>
       </c>
       <c r="C40">
-        <v>0.02213307188581518</v>
+        <v>-0.007220819585215629</v>
       </c>
       <c r="D40">
-        <v>-0.01470082427078077</v>
+        <v>0.03157290128778453</v>
       </c>
       <c r="E40">
-        <v>-0.06740932000382463</v>
+        <v>0.003362361538086485</v>
       </c>
       <c r="F40">
-        <v>0.03397300204004378</v>
+        <v>-0.01318181394548116</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.0228676097541427</v>
+        <v>-0.02632729209330417</v>
       </c>
       <c r="C41">
-        <v>-0.004866404267218575</v>
+        <v>-0.006550448903825813</v>
       </c>
       <c r="D41">
-        <v>-0.007918968885900596</v>
+        <v>0.01153895203721576</v>
       </c>
       <c r="E41">
-        <v>0.007760882835114524</v>
+        <v>0.01253999600927772</v>
       </c>
       <c r="F41">
-        <v>0.01048827941131297</v>
+        <v>-0.008280665235487917</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03502031433464253</v>
+        <v>-0.04022401456220169</v>
       </c>
       <c r="C43">
-        <v>0.0004167618954340886</v>
+        <v>-0.006637565964828057</v>
       </c>
       <c r="D43">
-        <v>0.01401248151430465</v>
+        <v>0.02135419411148504</v>
       </c>
       <c r="E43">
-        <v>0.003888241586867243</v>
+        <v>0.02481463127879953</v>
       </c>
       <c r="F43">
-        <v>-0.004001019266565172</v>
+        <v>-0.01322778717424601</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1312008030810564</v>
+        <v>-0.07607080765807397</v>
       </c>
       <c r="C44">
-        <v>0.1405304336205252</v>
+        <v>-0.02151870431976668</v>
       </c>
       <c r="D44">
-        <v>0.04093708964296189</v>
+        <v>0.09479919623306884</v>
       </c>
       <c r="E44">
-        <v>-0.1060942233839292</v>
+        <v>0.07516662978512945</v>
       </c>
       <c r="F44">
-        <v>0.1162452023444383</v>
+        <v>0.1836614744205114</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01693780445155378</v>
+        <v>-0.02254585214331599</v>
       </c>
       <c r="C46">
-        <v>-0.02137505448796873</v>
+        <v>-0.00357350681374449</v>
       </c>
       <c r="D46">
-        <v>0.01686810394246399</v>
+        <v>0.0119644341581143</v>
       </c>
       <c r="E46">
-        <v>-0.02255274210865851</v>
+        <v>0.02365655301985541</v>
       </c>
       <c r="F46">
-        <v>0.02794602082143305</v>
+        <v>-0.0006545991184925964</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03922042613417549</v>
+        <v>-0.05153337887645526</v>
       </c>
       <c r="C47">
-        <v>0.01149834418743912</v>
+        <v>-0.00315603809507494</v>
       </c>
       <c r="D47">
-        <v>-0.007879268828787023</v>
+        <v>0.01429769866371419</v>
       </c>
       <c r="E47">
-        <v>0.006063647606657944</v>
+        <v>0.02235897916858556</v>
       </c>
       <c r="F47">
-        <v>-0.0007082971588499266</v>
+        <v>-0.04462279556146777</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03406520543418591</v>
+        <v>-0.0473974858980927</v>
       </c>
       <c r="C48">
-        <v>-0.002626274517296166</v>
+        <v>-0.00264384196834149</v>
       </c>
       <c r="D48">
-        <v>0.00729692172692023</v>
+        <v>0.04943773884718244</v>
       </c>
       <c r="E48">
-        <v>0.008921731614176956</v>
+        <v>-0.004354884445216444</v>
       </c>
       <c r="F48">
-        <v>-0.002621806722796778</v>
+        <v>0.01007694594706781</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2303719972927261</v>
+        <v>-0.2028071843126814</v>
       </c>
       <c r="C49">
-        <v>0.003393321481111273</v>
+        <v>-0.0175870060504108</v>
       </c>
       <c r="D49">
-        <v>-0.0438686428434413</v>
+        <v>-0.00997392442977256</v>
       </c>
       <c r="E49">
-        <v>0.01507559524093914</v>
+        <v>0.03367138144223976</v>
       </c>
       <c r="F49">
-        <v>0.05679325648115449</v>
+        <v>0.02927070946944937</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03825493756391186</v>
+        <v>-0.04813710174398857</v>
       </c>
       <c r="C50">
-        <v>0.01751212032314179</v>
+        <v>-0.01097683957498908</v>
       </c>
       <c r="D50">
-        <v>-0.01163310616486949</v>
+        <v>0.02666939521037735</v>
       </c>
       <c r="E50">
-        <v>0.00871152044468426</v>
+        <v>0.02982342542584284</v>
       </c>
       <c r="F50">
-        <v>0.00408338957111252</v>
+        <v>0.008540712584829115</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.01079820406298406</v>
+        <v>-0.00214999927144808</v>
       </c>
       <c r="C51">
-        <v>-0.01477036987747584</v>
+        <v>-0.0005447035390544413</v>
       </c>
       <c r="D51">
-        <v>0.01529592026460202</v>
+        <v>-0.002250824591839388</v>
       </c>
       <c r="E51">
-        <v>-0.007038175404973333</v>
+        <v>-7.231242329892042e-05</v>
       </c>
       <c r="F51">
-        <v>0.01362867561365611</v>
+        <v>0.004628458590447782</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1066600435331287</v>
+        <v>-0.1448847896310218</v>
       </c>
       <c r="C52">
-        <v>0.07765831134809958</v>
+        <v>-0.01398144963928603</v>
       </c>
       <c r="D52">
-        <v>0.008165246214023245</v>
+        <v>0.05066486771271539</v>
       </c>
       <c r="E52">
-        <v>0.007769795603717351</v>
+        <v>0.02422262452101456</v>
       </c>
       <c r="F52">
-        <v>0.008716390094297878</v>
+        <v>0.03441414329331365</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1597541066828579</v>
+        <v>-0.173980063980073</v>
       </c>
       <c r="C53">
-        <v>0.0352005284674138</v>
+        <v>-0.01688556401193184</v>
       </c>
       <c r="D53">
-        <v>0.006312335717168059</v>
+        <v>0.01106114841073813</v>
       </c>
       <c r="E53">
-        <v>-0.02357571453698577</v>
+        <v>0.03566165812431609</v>
       </c>
       <c r="F53">
-        <v>0.02857865464872302</v>
+        <v>0.06718316455762814</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.04913714374499301</v>
+        <v>-0.02179559552732326</v>
       </c>
       <c r="C54">
-        <v>0.02026005338706415</v>
+        <v>-0.01235018896092011</v>
       </c>
       <c r="D54">
-        <v>-0.002477046878512186</v>
+        <v>0.03285982155862911</v>
       </c>
       <c r="E54">
-        <v>-0.02581180740518181</v>
+        <v>0.01502279230568756</v>
       </c>
       <c r="F54">
-        <v>-0.004367670369965376</v>
+        <v>-0.005676385926607599</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08212971153493773</v>
+        <v>-0.1142658069081488</v>
       </c>
       <c r="C55">
-        <v>0.0248889401835162</v>
+        <v>-0.01549949746104737</v>
       </c>
       <c r="D55">
-        <v>0.04981140348922599</v>
+        <v>0.01089426383462004</v>
       </c>
       <c r="E55">
-        <v>0.02125724897729662</v>
+        <v>0.03078619422961439</v>
       </c>
       <c r="F55">
-        <v>0.01111569730644755</v>
+        <v>0.04517415184233625</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.15737442181345</v>
+        <v>-0.1775945496240824</v>
       </c>
       <c r="C56">
-        <v>0.05341840590926367</v>
+        <v>-0.01434703533620895</v>
       </c>
       <c r="D56">
-        <v>0.01381539230168629</v>
+        <v>0.007095644750453827</v>
       </c>
       <c r="E56">
-        <v>0.007621273424060687</v>
+        <v>0.03990305364838101</v>
       </c>
       <c r="F56">
-        <v>0.0506709195535099</v>
+        <v>0.04322777468884521</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0468314883590007</v>
+        <v>-0.04635619435004065</v>
       </c>
       <c r="C58">
-        <v>-0.005541542699021186</v>
+        <v>-0.001293949782111547</v>
       </c>
       <c r="D58">
-        <v>-0.01049566062862465</v>
+        <v>0.0663527124015594</v>
       </c>
       <c r="E58">
-        <v>-0.05351195275911725</v>
+        <v>0.02403139858303249</v>
       </c>
       <c r="F58">
-        <v>0.01763924166744986</v>
+        <v>-0.04352360417266261</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1724012038803527</v>
+        <v>-0.172509092810387</v>
       </c>
       <c r="C59">
-        <v>-0.241671965653066</v>
+        <v>-0.01751962724930564</v>
       </c>
       <c r="D59">
-        <v>0.06341512697739306</v>
+        <v>-0.2229817624785901</v>
       </c>
       <c r="E59">
-        <v>0.0538377611326997</v>
+        <v>-0.04972512954184713</v>
       </c>
       <c r="F59">
-        <v>0.01781582998414884</v>
+        <v>-0.03293498043972202</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2800075359740005</v>
+        <v>-0.2357187182220736</v>
       </c>
       <c r="C60">
-        <v>0.1596340140237788</v>
+        <v>0.004301203864935612</v>
       </c>
       <c r="D60">
-        <v>-0.04229790165584493</v>
+        <v>0.04833553218835427</v>
       </c>
       <c r="E60">
-        <v>0.05771303934310171</v>
+        <v>0.009254120546776656</v>
       </c>
       <c r="F60">
-        <v>0.1803674957851853</v>
+        <v>-0.03190437850095107</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.114942644866046</v>
+        <v>-0.08312543135231942</v>
       </c>
       <c r="C61">
-        <v>0.0705519647077426</v>
+        <v>-0.01264346113819947</v>
       </c>
       <c r="D61">
-        <v>0.03454863970580227</v>
+        <v>0.1147000452831324</v>
       </c>
       <c r="E61">
-        <v>0.08295179182245543</v>
+        <v>0.04232215592211521</v>
       </c>
       <c r="F61">
-        <v>0.03055995923809974</v>
+        <v>0.01262829312145493</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.156786380349958</v>
+        <v>-0.1701377072057203</v>
       </c>
       <c r="C62">
-        <v>0.03643284645751143</v>
+        <v>-0.01789622411336411</v>
       </c>
       <c r="D62">
-        <v>0.02323300300917994</v>
+        <v>0.01100822280024178</v>
       </c>
       <c r="E62">
-        <v>-0.008185086036600868</v>
+        <v>0.03637654818319148</v>
       </c>
       <c r="F62">
-        <v>0.04483998544594404</v>
+        <v>0.02439212995363597</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.03855635902088812</v>
+        <v>-0.04220720713004247</v>
       </c>
       <c r="C63">
-        <v>-0.007473258250458114</v>
+        <v>-0.002760156662182205</v>
       </c>
       <c r="D63">
-        <v>0.01082836711961464</v>
+        <v>0.05197569738605624</v>
       </c>
       <c r="E63">
-        <v>0.004031817817096819</v>
+        <v>0.02227196385587995</v>
       </c>
       <c r="F63">
-        <v>-0.04507013851578427</v>
+        <v>0.005708198323711097</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09392600195181638</v>
+        <v>-0.1115936807371044</v>
       </c>
       <c r="C64">
-        <v>0.01786260322347787</v>
+        <v>-0.01117268793352555</v>
       </c>
       <c r="D64">
-        <v>-0.001019734657401002</v>
+        <v>0.04371038882856567</v>
       </c>
       <c r="E64">
-        <v>0.008389376448255301</v>
+        <v>0.02080489459652143</v>
       </c>
       <c r="F64">
-        <v>0.06031476986896014</v>
+        <v>0.02515986762263749</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1160899492432312</v>
+        <v>-0.1460970358134152</v>
       </c>
       <c r="C65">
-        <v>-0.00913816952072981</v>
+        <v>-0.03130485464477775</v>
       </c>
       <c r="D65">
-        <v>0.0152866671980774</v>
+        <v>-0.04346502754128907</v>
       </c>
       <c r="E65">
-        <v>0.01053012099760526</v>
+        <v>-0.0005232170394376047</v>
       </c>
       <c r="F65">
-        <v>-0.06345614076930521</v>
+        <v>0.04861182551661077</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1533792433760117</v>
+        <v>-0.1286557425343966</v>
       </c>
       <c r="C66">
-        <v>0.1358832920650655</v>
+        <v>-0.01431667175517075</v>
       </c>
       <c r="D66">
-        <v>0.0424836825129853</v>
+        <v>0.1432782355284946</v>
       </c>
       <c r="E66">
-        <v>0.115316230418807</v>
+        <v>0.06926841240013464</v>
       </c>
       <c r="F66">
-        <v>0.0235567733225083</v>
+        <v>0.02897909979366517</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06609306234644724</v>
+        <v>-0.06195187912108959</v>
       </c>
       <c r="C67">
-        <v>0.04061614769784009</v>
+        <v>-0.002987411926940007</v>
       </c>
       <c r="D67">
-        <v>0.0824375339161304</v>
+        <v>0.05375763490516477</v>
       </c>
       <c r="E67">
-        <v>-0.02366435932037809</v>
+        <v>0.01758407502919489</v>
       </c>
       <c r="F67">
-        <v>0.01726029742266634</v>
+        <v>-0.04153654234329881</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.08868209785812198</v>
+        <v>-0.1170668723863827</v>
       </c>
       <c r="C68">
-        <v>-0.2743176156036348</v>
+        <v>-0.02736904938520456</v>
       </c>
       <c r="D68">
-        <v>0.03085627490085754</v>
+        <v>-0.2612635186873701</v>
       </c>
       <c r="E68">
-        <v>0.04913189888036992</v>
+        <v>-0.08815434215199085</v>
       </c>
       <c r="F68">
-        <v>-0.03210542962845871</v>
+        <v>0.03141065721894243</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03416243652926251</v>
+        <v>-0.03910851500376034</v>
       </c>
       <c r="C69">
-        <v>-0.001695348688141606</v>
+        <v>-0.0008977284981241668</v>
       </c>
       <c r="D69">
-        <v>0.03258774461781646</v>
+        <v>0.009876568791990262</v>
       </c>
       <c r="E69">
-        <v>0.001033809183329889</v>
+        <v>0.024144118938334</v>
       </c>
       <c r="F69">
-        <v>0.01522966610523572</v>
+        <v>-0.01024251519946798</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.02854992460771703</v>
+        <v>-0.06225588037915183</v>
       </c>
       <c r="C70">
-        <v>-0.008742206028058662</v>
+        <v>0.02873757398689897</v>
       </c>
       <c r="D70">
-        <v>0.04613653684985276</v>
+        <v>0.02961863890975234</v>
       </c>
       <c r="E70">
-        <v>0.04083576927651013</v>
+        <v>-0.05053989822606501</v>
       </c>
       <c r="F70">
-        <v>0.033114029918132</v>
+        <v>-0.2720036563809702</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1029457191645195</v>
+        <v>-0.1363573966052435</v>
       </c>
       <c r="C71">
-        <v>-0.2903816999177553</v>
+        <v>-0.03167184533042963</v>
       </c>
       <c r="D71">
-        <v>0.04720483306209031</v>
+        <v>-0.276249466957521</v>
       </c>
       <c r="E71">
-        <v>0.04300839591795807</v>
+        <v>-0.09660540869590378</v>
       </c>
       <c r="F71">
-        <v>0.0133140290193138</v>
+        <v>0.03727753012131814</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1396272794849737</v>
+        <v>-0.1410940901470221</v>
       </c>
       <c r="C72">
-        <v>-0.01960241509891811</v>
+        <v>-0.02493486476824521</v>
       </c>
       <c r="D72">
-        <v>-0.001337441200743988</v>
+        <v>0.004328811864927437</v>
       </c>
       <c r="E72">
-        <v>-0.01330477556756746</v>
+        <v>0.04428248584080915</v>
       </c>
       <c r="F72">
-        <v>-0.01034799864297962</v>
+        <v>0.02572880521276871</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2304798053460493</v>
+        <v>-0.203078855598673</v>
       </c>
       <c r="C73">
-        <v>0.04767658454697651</v>
+        <v>-0.01156980373477299</v>
       </c>
       <c r="D73">
-        <v>0.04961713250074055</v>
+        <v>0.01660549740376177</v>
       </c>
       <c r="E73">
-        <v>0.05910312470919141</v>
+        <v>0.06312667248216965</v>
       </c>
       <c r="F73">
-        <v>0.134831681071529</v>
+        <v>0.03239114262062606</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1160097269978216</v>
+        <v>-0.09425473682874529</v>
       </c>
       <c r="C74">
-        <v>0.04459071400175613</v>
+        <v>-0.01222006114220364</v>
       </c>
       <c r="D74">
-        <v>0.01694424210223444</v>
+        <v>0.02085733308533389</v>
       </c>
       <c r="E74">
-        <v>-0.01228385140050359</v>
+        <v>0.04861814826109057</v>
       </c>
       <c r="F74">
-        <v>0.01749057279421752</v>
+        <v>0.04931941266100748</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1225887349694217</v>
+        <v>-0.1294567013962042</v>
       </c>
       <c r="C75">
-        <v>0.05225405091914022</v>
+        <v>-0.02651062975803596</v>
       </c>
       <c r="D75">
-        <v>-0.0005106144155287672</v>
+        <v>0.0343234721054636</v>
       </c>
       <c r="E75">
-        <v>-0.01065694060638277</v>
+        <v>0.06057297240367106</v>
       </c>
       <c r="F75">
-        <v>-0.008044592433281268</v>
+        <v>0.01370756907493749</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01806089440542169</v>
+        <v>-0.003380935706268304</v>
       </c>
       <c r="C76">
-        <v>-0.01526165683311804</v>
+        <v>-0.0008091405511726576</v>
       </c>
       <c r="D76">
-        <v>0.01123266491530738</v>
+        <v>-0.002410355932980046</v>
       </c>
       <c r="E76">
-        <v>0.007695058545422349</v>
+        <v>0.0005024061258458072</v>
       </c>
       <c r="F76">
-        <v>0.02090532393429445</v>
+        <v>0.003829022008358948</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07297608054064778</v>
+        <v>-0.07837648446398103</v>
       </c>
       <c r="C77">
-        <v>0.1137978937097667</v>
+        <v>-0.008770137241254921</v>
       </c>
       <c r="D77">
-        <v>-0.01670784397793081</v>
+        <v>0.1175001399358229</v>
       </c>
       <c r="E77">
-        <v>0.0001074217490651166</v>
+        <v>0.03928697832129739</v>
       </c>
       <c r="F77">
-        <v>0.06355991700228598</v>
+        <v>0.03008466862102561</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1222553521137372</v>
+        <v>-0.1039749605961756</v>
       </c>
       <c r="C78">
-        <v>0.03011898722893143</v>
+        <v>-0.04004962781236645</v>
       </c>
       <c r="D78">
-        <v>0.07906497183371315</v>
+        <v>0.1174732202707217</v>
       </c>
       <c r="E78">
-        <v>-0.329436370260927</v>
+        <v>0.08338088550948128</v>
       </c>
       <c r="F78">
-        <v>-0.2796343991052007</v>
+        <v>0.06405273612606635</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1328522556806272</v>
+        <v>-0.163998412894203</v>
       </c>
       <c r="C79">
-        <v>0.04191317839466274</v>
+        <v>-0.02071478986682189</v>
       </c>
       <c r="D79">
-        <v>-0.02336302369778936</v>
+        <v>0.01910186300481756</v>
       </c>
       <c r="E79">
-        <v>-0.003271388041912651</v>
+        <v>0.04957696437455973</v>
       </c>
       <c r="F79">
-        <v>0.02610029255893601</v>
+        <v>0.005168795776572195</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.0813291134964778</v>
+        <v>-0.08077347224283912</v>
       </c>
       <c r="C80">
-        <v>0.08748585782910766</v>
+        <v>0.0009491273777442148</v>
       </c>
       <c r="D80">
-        <v>0.07537389998523751</v>
+        <v>0.0574592101398868</v>
       </c>
       <c r="E80">
-        <v>0.02957595246660775</v>
+        <v>0.03609521390743393</v>
       </c>
       <c r="F80">
-        <v>-0.01133751752839377</v>
+        <v>-0.01728589908941787</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1422295370152952</v>
+        <v>-0.1232817568439228</v>
       </c>
       <c r="C81">
-        <v>0.06320539970383678</v>
+        <v>-0.0303392422029983</v>
       </c>
       <c r="D81">
-        <v>0.003981439443533047</v>
+        <v>0.01882917741765035</v>
       </c>
       <c r="E81">
-        <v>-0.01036064964506397</v>
+        <v>0.05984482249741756</v>
       </c>
       <c r="F81">
-        <v>0.01606960383064419</v>
+        <v>0.006612998339077447</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1623628060383059</v>
+        <v>-0.1641227430134606</v>
       </c>
       <c r="C82">
-        <v>0.05409652322565765</v>
+        <v>-0.02248967831313594</v>
       </c>
       <c r="D82">
-        <v>0.02547001231815247</v>
+        <v>0.01286304601867014</v>
       </c>
       <c r="E82">
-        <v>0.0237876838085874</v>
+        <v>0.03485693584407635</v>
       </c>
       <c r="F82">
-        <v>0.04454036484748201</v>
+        <v>0.06879943380856197</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08038956030861864</v>
+        <v>-0.06232625109106802</v>
       </c>
       <c r="C83">
-        <v>0.0713797201659641</v>
+        <v>-0.003072244182962904</v>
       </c>
       <c r="D83">
-        <v>-0.02165702146299309</v>
+        <v>0.05110300203069418</v>
       </c>
       <c r="E83">
-        <v>-0.03843189917076476</v>
+        <v>0.005880131008301247</v>
       </c>
       <c r="F83">
-        <v>-0.04910490752109952</v>
+        <v>-0.04369823760161455</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07269254209819725</v>
+        <v>-0.05901111560751532</v>
       </c>
       <c r="C84">
-        <v>0.00168976321259188</v>
+        <v>-0.01068938709967088</v>
       </c>
       <c r="D84">
-        <v>-0.002150105391473635</v>
+        <v>0.06460236266156201</v>
       </c>
       <c r="E84">
-        <v>0.08050393843375749</v>
+        <v>0.003847553611513988</v>
       </c>
       <c r="F84">
-        <v>0.05505468095462107</v>
+        <v>0.0105714275941407</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.124677766483966</v>
+        <v>-0.1388854575421016</v>
       </c>
       <c r="C85">
-        <v>0.03178521807528321</v>
+        <v>-0.02629650878153479</v>
       </c>
       <c r="D85">
-        <v>0.00426130691589782</v>
+        <v>0.01496023380684088</v>
       </c>
       <c r="E85">
-        <v>-0.002595490179718833</v>
+        <v>0.04147746836272122</v>
       </c>
       <c r="F85">
-        <v>0.03669390510482534</v>
+        <v>0.04632182796970692</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1531129357081642</v>
+        <v>-0.09449865489909647</v>
       </c>
       <c r="C86">
-        <v>-0.03141447728180593</v>
+        <v>0.007113961763584494</v>
       </c>
       <c r="D86">
-        <v>-0.9340207746252553</v>
+        <v>0.0233448947034941</v>
       </c>
       <c r="E86">
-        <v>-0.05038197755765998</v>
+        <v>0.1521762630323698</v>
       </c>
       <c r="F86">
-        <v>-0.05765841481043341</v>
+        <v>-0.8730806429850846</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1153661319977149</v>
+        <v>-0.09600079399419903</v>
       </c>
       <c r="C87">
-        <v>0.1045365975189436</v>
+        <v>-0.02192459880897553</v>
       </c>
       <c r="D87">
-        <v>0.003693259333419938</v>
+        <v>0.09063724530414151</v>
       </c>
       <c r="E87">
-        <v>-0.003509347160733779</v>
+        <v>-0.05385328318361155</v>
       </c>
       <c r="F87">
-        <v>0.03938584572567677</v>
+        <v>0.08130592474448364</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05060382599368159</v>
+        <v>-0.0610689752578446</v>
       </c>
       <c r="C88">
-        <v>0.0182240458444807</v>
+        <v>-0.002426247358447798</v>
       </c>
       <c r="D88">
-        <v>0.01829388755305206</v>
+        <v>0.05405921694139357</v>
       </c>
       <c r="E88">
-        <v>0.05681704494784936</v>
+        <v>0.02712504905788026</v>
       </c>
       <c r="F88">
-        <v>0.001354921007266248</v>
+        <v>0.00959021421935914</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1573478156662761</v>
+        <v>-0.1360197281165489</v>
       </c>
       <c r="C89">
-        <v>-0.3563702456665917</v>
+        <v>-0.009773202164542815</v>
       </c>
       <c r="D89">
-        <v>0.05221984758356348</v>
+        <v>-0.2539931376420868</v>
       </c>
       <c r="E89">
-        <v>-0.02832214343496517</v>
+        <v>-0.09252114435867194</v>
       </c>
       <c r="F89">
-        <v>0.03055344969271914</v>
+        <v>0.01511312592316157</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1144781629728776</v>
+        <v>-0.1477207521473945</v>
       </c>
       <c r="C90">
-        <v>-0.2852228504063243</v>
+        <v>-0.02743274305392147</v>
       </c>
       <c r="D90">
-        <v>0.03410346017207573</v>
+        <v>-0.2664017473830875</v>
       </c>
       <c r="E90">
-        <v>0.06009830528830474</v>
+        <v>-0.1091543808812187</v>
       </c>
       <c r="F90">
-        <v>0.01338242174314611</v>
+        <v>0.01997951681536945</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.08656093881976297</v>
+        <v>-0.1194753987304685</v>
       </c>
       <c r="C91">
-        <v>0.0375139549231656</v>
+        <v>-0.0169125609826533</v>
       </c>
       <c r="D91">
-        <v>-0.01957884570668633</v>
+        <v>-0.008316541842279116</v>
       </c>
       <c r="E91">
-        <v>-0.001453992250598041</v>
+        <v>0.05767915426620063</v>
       </c>
       <c r="F91">
-        <v>0.02986780333403311</v>
+        <v>-0.01630447460276694</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1321695296856244</v>
+        <v>-0.1501847427491193</v>
       </c>
       <c r="C92">
-        <v>-0.3193564610542947</v>
+        <v>-0.01910431586750014</v>
       </c>
       <c r="D92">
-        <v>0.04457098803495343</v>
+        <v>-0.293985759203754</v>
       </c>
       <c r="E92">
-        <v>-0.001791911581259864</v>
+        <v>-0.1039973529360294</v>
       </c>
       <c r="F92">
-        <v>-0.002405451082170821</v>
+        <v>0.01363056996902298</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1197515672283888</v>
+        <v>-0.1519555083077298</v>
       </c>
       <c r="C93">
-        <v>-0.3224105493547356</v>
+        <v>-0.02342029583315351</v>
       </c>
       <c r="D93">
-        <v>0.02355208735890811</v>
+        <v>-0.2658644990936917</v>
       </c>
       <c r="E93">
-        <v>0.08972474927402116</v>
+        <v>-0.07660056565178448</v>
       </c>
       <c r="F93">
-        <v>0.02696136448039122</v>
+        <v>0.01468228666187746</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1446553005266724</v>
+        <v>-0.1327052613024543</v>
       </c>
       <c r="C94">
-        <v>0.05323301694031091</v>
+        <v>-0.02373259117440646</v>
       </c>
       <c r="D94">
-        <v>0.03706988439201352</v>
+        <v>0.04599328388744685</v>
       </c>
       <c r="E94">
-        <v>-0.02305534509561057</v>
+        <v>0.06136207424761213</v>
       </c>
       <c r="F94">
-        <v>0.01959607637308731</v>
+        <v>0.03178691893854806</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1147823469380311</v>
+        <v>-0.1258642241626763</v>
       </c>
       <c r="C95">
-        <v>0.03574555330450851</v>
+        <v>-0.004645860872736862</v>
       </c>
       <c r="D95">
-        <v>0.02399424511738953</v>
+        <v>0.08973121251474724</v>
       </c>
       <c r="E95">
-        <v>-0.02654654645505982</v>
+        <v>0.04492229785223405</v>
       </c>
       <c r="F95">
-        <v>0.03930953545332427</v>
+        <v>-0.01431059399958575</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01460714027473506</v>
+        <v>-0.09896253184935452</v>
       </c>
       <c r="C96">
-        <v>-0.003783249810750405</v>
+        <v>0.9887659173081674</v>
       </c>
       <c r="D96">
-        <v>-0.003316549736683032</v>
+        <v>-0.03529362025692159</v>
       </c>
       <c r="E96">
-        <v>-0.008911416036017051</v>
+        <v>0.05801572727927209</v>
       </c>
       <c r="F96">
-        <v>-0.00301127732693959</v>
+        <v>0.04614319410670033</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1767156874173067</v>
+        <v>-0.1899198483025141</v>
       </c>
       <c r="C97">
-        <v>0.03257892953376215</v>
+        <v>0.009684913242131417</v>
       </c>
       <c r="D97">
-        <v>0.05249925196159484</v>
+        <v>-0.01187520850085402</v>
       </c>
       <c r="E97">
-        <v>-0.1042882562177684</v>
+        <v>0.01320484172438413</v>
       </c>
       <c r="F97">
-        <v>-0.8538643225718099</v>
+        <v>-0.1499511782189951</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2454849390367759</v>
+        <v>-0.2055623238820441</v>
       </c>
       <c r="C98">
-        <v>-0.01348376448463702</v>
+        <v>-0.007144946034787253</v>
       </c>
       <c r="D98">
-        <v>-0.02431704066196286</v>
+        <v>0.009386710672392084</v>
       </c>
       <c r="E98">
-        <v>-0.08882731238399449</v>
+        <v>-0.0981440998671818</v>
       </c>
       <c r="F98">
-        <v>0.02320654983375935</v>
+        <v>-0.1112866248222626</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.04320460389571231</v>
+        <v>-0.05543142180644556</v>
       </c>
       <c r="C99">
-        <v>-0.006067929478177092</v>
+        <v>0.004090618710311558</v>
       </c>
       <c r="D99">
-        <v>0.0333981469339018</v>
+        <v>0.03632908520209192</v>
       </c>
       <c r="E99">
-        <v>-0.0192511551576802</v>
+        <v>0.02692798496780876</v>
       </c>
       <c r="F99">
-        <v>0.01709749825201349</v>
+        <v>0.002875487471987465</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.0418310473684371</v>
+        <v>-0.1222912041717889</v>
       </c>
       <c r="C100">
-        <v>0.1333731090859152</v>
+        <v>0.0520364214651181</v>
       </c>
       <c r="D100">
-        <v>0.2120476468958969</v>
+        <v>0.3499220760374994</v>
       </c>
       <c r="E100">
-        <v>0.06131346970040567</v>
+        <v>-0.8929961099913196</v>
       </c>
       <c r="F100">
-        <v>-0.08609166515691082</v>
+        <v>-0.07379226172022529</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02840639539014725</v>
+        <v>-0.02713435716743673</v>
       </c>
       <c r="C101">
-        <v>0.005465012954785056</v>
+        <v>-0.008619947104544839</v>
       </c>
       <c r="D101">
-        <v>-0.0001387437270923037</v>
+        <v>0.02986889842441522</v>
       </c>
       <c r="E101">
-        <v>0.03605821111686972</v>
+        <v>0.0116496577818282</v>
       </c>
       <c r="F101">
-        <v>0.02735712489655512</v>
+        <v>-0.01639162469739063</v>
       </c>
     </row>
     <row r="102" spans="1:6">
